--- a/src/WP43S key template.xlsx
+++ b/src/WP43S key template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="235">
   <si>
     <t>primary</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>-MNU_ASN</t>
+  </si>
+  <si>
+    <t>-MNU_HOME</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +781,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -788,7 +797,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -818,15 +827,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -841,6 +855,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -855,6 +871,8 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1187,7 +1205,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1880,8 +1898,8 @@
       <c r="B25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
+      <c r="C25" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -3233,7 +3251,7 @@
       </c>
       <c r="C22" t="str">
         <f>"kbd_usr["&amp;$A22&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].fShifted=ITM_NULL; </v>
+        <v xml:space="preserve">kbd_usr[20].fShifted=-MNU_HOME; </v>
       </c>
       <c r="D22" t="str">
         <f>"kbd_usr["&amp;$A22&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D25&amp;"; "</f>

--- a/src/WP43S key template.xlsx
+++ b/src/WP43S key template.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacomostert/Documents/WP43S/gitlab.nosync/wp43s/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E9436A-3921-8947-BCEF-27E80BB2F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="import" sheetId="1" r:id="rId1"/>
+    <sheet name="output code" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -55,105 +68,33 @@
     <t>ITM_NULL</t>
   </si>
   <si>
-    <t>CHR_A</t>
-  </si>
-  <si>
-    <t>CHR_ALPHA</t>
-  </si>
-  <si>
-    <t>ITM_ST_A</t>
-  </si>
-  <si>
     <t>}</t>
   </si>
   <si>
-    <t>ITM_YX</t>
-  </si>
-  <si>
     <t>ITM_toINT</t>
   </si>
   <si>
-    <t>CHR_NUMBER_SIGN</t>
-  </si>
-  <si>
-    <t>CHR_B</t>
-  </si>
-  <si>
-    <t>CHR_BETA</t>
-  </si>
-  <si>
-    <t>ITM_ST_B</t>
-  </si>
-  <si>
     <t>ITM_DMS</t>
   </si>
   <si>
-    <t>ITM_pi</t>
-  </si>
-  <si>
-    <t>CHR_C</t>
-  </si>
-  <si>
-    <t>CHR_GAMMA</t>
-  </si>
-  <si>
-    <t>ITM_ST_C</t>
-  </si>
-  <si>
     <t>ITM_LN</t>
   </si>
   <si>
-    <t>KEY_dotD</t>
-  </si>
-  <si>
     <t>ITM_LOG10</t>
   </si>
   <si>
-    <t>CHR_D</t>
-  </si>
-  <si>
-    <t>CHR_DELTA</t>
-  </si>
-  <si>
-    <t>ITM_ST_D</t>
-  </si>
-  <si>
-    <t>ITM_EX</t>
-  </si>
-  <si>
     <t>ITM_toHMS</t>
   </si>
   <si>
     <t>ITM_10x</t>
   </si>
   <si>
-    <t>CHR_E</t>
-  </si>
-  <si>
-    <t>CHR_EPSILON</t>
-  </si>
-  <si>
-    <t>ITM_SQUARE</t>
-  </si>
-  <si>
     <t>ITM_AIM</t>
   </si>
   <si>
     <t>ITM_SQUAREROOTX</t>
   </si>
   <si>
-    <t>CHR_CHECK_MARK</t>
-  </si>
-  <si>
-    <t>CHR_F</t>
-  </si>
-  <si>
-    <t>CHR_PHI</t>
-  </si>
-  <si>
-    <t>CHR_alpha</t>
-  </si>
-  <si>
     <t>ITM_STO</t>
   </si>
   <si>
@@ -163,9 +104,6 @@
     <t>ITM_SAVE</t>
   </si>
   <si>
-    <t>CHR_G</t>
-  </si>
-  <si>
     <t>ITM_RCL</t>
   </si>
   <si>
@@ -175,12 +113,6 @@
     <t>ITM_VIEW</t>
   </si>
   <si>
-    <t>CHR_H</t>
-  </si>
-  <si>
-    <t>CHR_CHI</t>
-  </si>
-  <si>
     <t>ITM_HEX</t>
   </si>
   <si>
@@ -190,54 +122,15 @@
     <t>ITM_Rup</t>
   </si>
   <si>
-    <t>CHR_I</t>
-  </si>
-  <si>
-    <t>CHR_DOWN_ARROW</t>
-  </si>
-  <si>
-    <t>CHR_IOTA</t>
-  </si>
-  <si>
-    <t>ITM_REGI</t>
-  </si>
-  <si>
-    <t>KEY_CC</t>
-  </si>
-  <si>
     <t>ITM_MAGNITUDE</t>
   </si>
   <si>
     <t>ITM_ANGLE</t>
   </si>
   <si>
-    <t>CHR_J</t>
-  </si>
-  <si>
-    <t>CHR_ETA</t>
-  </si>
-  <si>
-    <t>ITM_REGJ</t>
-  </si>
-  <si>
-    <t>KEY_f</t>
-  </si>
-  <si>
-    <t>ITM_SCRDMP</t>
-  </si>
-  <si>
-    <t>KEY_g</t>
-  </si>
-  <si>
-    <t>KEY_USERMODE</t>
-  </si>
-  <si>
     <t>ITM_ENTER</t>
   </si>
   <si>
-    <t>ITM_STATUS</t>
-  </si>
-  <si>
     <t>ITM_DROP</t>
   </si>
   <si>
@@ -247,102 +140,27 @@
     <t>ITM_FILL</t>
   </si>
   <si>
-    <t>CHR_ex</t>
-  </si>
-  <si>
-    <t>CHR_K</t>
-  </si>
-  <si>
-    <t>CHR_KAPPA</t>
-  </si>
-  <si>
-    <t>ITM_REGK</t>
-  </si>
-  <si>
     <t>ITM_CHS</t>
   </si>
   <si>
     <t>ITM_DELTAPC</t>
   </si>
   <si>
-    <t>CHR_PLUS_MINUS</t>
-  </si>
-  <si>
-    <t>CHR_L</t>
-  </si>
-  <si>
-    <t>CHR_LAMBDA</t>
-  </si>
-  <si>
-    <t>ITM_REGL</t>
-  </si>
-  <si>
     <t>ITM_EXPONENT</t>
   </si>
   <si>
     <t>ITM_SHOW</t>
   </si>
   <si>
-    <t>CHR_M</t>
-  </si>
-  <si>
-    <t>CHR_UP_ARROW</t>
-  </si>
-  <si>
-    <t>CHR_MU</t>
-  </si>
-  <si>
-    <t>KEY_BACKSPACE</t>
-  </si>
-  <si>
-    <t>KEY_UNDO</t>
-  </si>
-  <si>
     <t>ITM_DIV</t>
   </si>
   <si>
-    <t>ITM_RMD</t>
-  </si>
-  <si>
     <t>ITM_MOD</t>
   </si>
   <si>
-    <t>CHR_SLASH</t>
-  </si>
-  <si>
-    <t>CHR_N</t>
-  </si>
-  <si>
-    <t>CHR_NU</t>
-  </si>
-  <si>
-    <t>CHR_7</t>
-  </si>
-  <si>
-    <t>CHR_O</t>
-  </si>
-  <si>
-    <t>CHR_OMEGA</t>
-  </si>
-  <si>
-    <t>CHR_8</t>
-  </si>
-  <si>
-    <t>CHR_P</t>
-  </si>
-  <si>
-    <t>CHR_PI</t>
-  </si>
-  <si>
-    <t>CHR_9</t>
-  </si>
-  <si>
     <t>ITM_RTN</t>
   </si>
   <si>
-    <t>CHR_Q</t>
-  </si>
-  <si>
     <t>ITM_XEQ</t>
   </si>
   <si>
@@ -358,129 +176,27 @@
     <t>ITM_XFACT</t>
   </si>
   <si>
-    <t>CHR_CROSS</t>
-  </si>
-  <si>
-    <t>CHR_R</t>
-  </si>
-  <si>
-    <t>CHR_PROD_SIGN</t>
-  </si>
-  <si>
-    <t>CHR_RHO</t>
-  </si>
-  <si>
-    <t>CHR_4</t>
-  </si>
-  <si>
-    <t>CHR_S</t>
-  </si>
-  <si>
-    <t>CHR_SIGMA</t>
-  </si>
-  <si>
-    <t>CHR_5</t>
-  </si>
-  <si>
     <t>ITM_toREC</t>
   </si>
   <si>
     <t>ITM_toPOL</t>
   </si>
   <si>
-    <t>CHR_T</t>
-  </si>
-  <si>
-    <t>CHR_TAU</t>
-  </si>
-  <si>
-    <t>CHR_6</t>
-  </si>
-  <si>
-    <t>CHR_U</t>
-  </si>
-  <si>
-    <t>CHR_THETA</t>
-  </si>
-  <si>
-    <t>KEY_BST</t>
-  </si>
-  <si>
     <t>ITM_SUB</t>
   </si>
   <si>
-    <t>CHR_MINUS</t>
-  </si>
-  <si>
-    <t>CHR_V</t>
-  </si>
-  <si>
-    <t>CHR_1</t>
-  </si>
-  <si>
-    <t>CHR_W</t>
-  </si>
-  <si>
-    <t>CHR_PSI</t>
-  </si>
-  <si>
-    <t>CHR_2</t>
-  </si>
-  <si>
-    <t>CHR_X</t>
-  </si>
-  <si>
-    <t>CHR_XI</t>
-  </si>
-  <si>
-    <t>CHR_3</t>
-  </si>
-  <si>
     <t>ITM_TIMER</t>
   </si>
   <si>
-    <t>CHR_Y</t>
-  </si>
-  <si>
-    <t>CHR_UPSILON</t>
-  </si>
-  <si>
-    <t>KEY_SST</t>
-  </si>
-  <si>
     <t>ITM_ADD</t>
   </si>
   <si>
-    <t>CHR_PLUS</t>
-  </si>
-  <si>
-    <t>CHR_Z</t>
-  </si>
-  <si>
-    <t>CHR_ZETA</t>
-  </si>
-  <si>
-    <t>CHR_0</t>
-  </si>
-  <si>
-    <t>CHR_PRINTER</t>
-  </si>
-  <si>
-    <t>CHR_PERIOD</t>
-  </si>
-  <si>
-    <t>CHR_COMMA</t>
-  </si>
-  <si>
     <t>ITM_RS</t>
   </si>
   <si>
     <t>ITM_PR</t>
   </si>
   <si>
-    <t>CHR_SPACE</t>
-  </si>
-  <si>
     <t>ITM_OFF</t>
   </si>
   <si>
@@ -628,12 +344,6 @@
     <t>-MNU_FIN</t>
   </si>
   <si>
-    <t>-MNU_DSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KEY_UNDO</t>
-  </si>
-  <si>
     <t>-MNU_CLR</t>
   </si>
   <si>
@@ -712,13 +422,316 @@
     <t>-MNU_CATALOG</t>
   </si>
   <si>
-    <t>KEY_EXIT1</t>
-  </si>
-  <si>
-    <t>KEY_UP1</t>
-  </si>
-  <si>
-    <t>KEY_DOWN1</t>
+    <t>ITM_REG_A</t>
+  </si>
+  <si>
+    <t>ITM_REG_B</t>
+  </si>
+  <si>
+    <t>ITM_REG_C</t>
+  </si>
+  <si>
+    <t>ITM_REG_D</t>
+  </si>
+  <si>
+    <t>ITM_alpha</t>
+  </si>
+  <si>
+    <t>ITM_REG_I</t>
+  </si>
+  <si>
+    <t>ITM_VERTICAL_BAR</t>
+  </si>
+  <si>
+    <t>ITM_REG_J</t>
+  </si>
+  <si>
+    <t>ITM_SHIFTf</t>
+  </si>
+  <si>
+    <t>ITM_SHIFTg</t>
+  </si>
+  <si>
+    <t>ITM_REG_K</t>
+  </si>
+  <si>
+    <t>ITM_REG_L</t>
+  </si>
+  <si>
+    <t>ITM_BACKSPACE</t>
+  </si>
+  <si>
+    <t>ITM_7</t>
+  </si>
+  <si>
+    <t>ITM_8</t>
+  </si>
+  <si>
+    <t>ITM_9</t>
+  </si>
+  <si>
+    <t>ITM_4</t>
+  </si>
+  <si>
+    <t>ITM_5</t>
+  </si>
+  <si>
+    <t>ITM_6</t>
+  </si>
+  <si>
+    <t>ITM_UP</t>
+  </si>
+  <si>
+    <t>ITM_1</t>
+  </si>
+  <si>
+    <t>ITM_2</t>
+  </si>
+  <si>
+    <t>ITM_3</t>
+  </si>
+  <si>
+    <t>ITM_DOWN</t>
+  </si>
+  <si>
+    <t>ITM_0</t>
+  </si>
+  <si>
+    <t>ITM_PERIOD</t>
+  </si>
+  <si>
+    <t>ITM_EXIT</t>
+  </si>
+  <si>
+    <t>ITM_A</t>
+  </si>
+  <si>
+    <t>ITM_ALPHA</t>
+  </si>
+  <si>
+    <t>ITM_NUMBER_SIGN</t>
+  </si>
+  <si>
+    <t>ITM_B</t>
+  </si>
+  <si>
+    <t>ITM_BETA</t>
+  </si>
+  <si>
+    <t>ITM_C</t>
+  </si>
+  <si>
+    <t>ITM_GAMMA</t>
+  </si>
+  <si>
+    <t>ITM_dotD</t>
+  </si>
+  <si>
+    <t>ITM_D</t>
+  </si>
+  <si>
+    <t>ITM_DELTA</t>
+  </si>
+  <si>
+    <t>ITM_EXP</t>
+  </si>
+  <si>
+    <t>ITM_E</t>
+  </si>
+  <si>
+    <t>ITM_EPSILON</t>
+  </si>
+  <si>
+    <t>ITM_ROOT_SIGN</t>
+  </si>
+  <si>
+    <t>ITM_F</t>
+  </si>
+  <si>
+    <t>ITM_PHI</t>
+  </si>
+  <si>
+    <t>ITM_G</t>
+  </si>
+  <si>
+    <t>ITM_H</t>
+  </si>
+  <si>
+    <t>ITM_CHI</t>
+  </si>
+  <si>
+    <t>ITM_I</t>
+  </si>
+  <si>
+    <t>ITM_DOWN_ARROW</t>
+  </si>
+  <si>
+    <t>ITM_IOTA</t>
+  </si>
+  <si>
+    <t>ITM_CC</t>
+  </si>
+  <si>
+    <t>ITM_J</t>
+  </si>
+  <si>
+    <t>ITM_ETA</t>
+  </si>
+  <si>
+    <t>ITM_SNAP</t>
+  </si>
+  <si>
+    <t>ITM_USERMODE</t>
+  </si>
+  <si>
+    <t>ITM_Xex</t>
+  </si>
+  <si>
+    <t>ITM_ex</t>
+  </si>
+  <si>
+    <t>ITM_K</t>
+  </si>
+  <si>
+    <t>ITM_KAPPA</t>
+  </si>
+  <si>
+    <t>ITM_PLUS_MINUS</t>
+  </si>
+  <si>
+    <t>ITM_L</t>
+  </si>
+  <si>
+    <t>ITM_LAMBDA</t>
+  </si>
+  <si>
+    <t>ITM_DSP</t>
+  </si>
+  <si>
+    <t>-MNU_DISP</t>
+  </si>
+  <si>
+    <t>ITM_M</t>
+  </si>
+  <si>
+    <t>ITM_UP_ARROW</t>
+  </si>
+  <si>
+    <t>ITM_MU</t>
+  </si>
+  <si>
+    <t>ITM_UNDO</t>
+  </si>
+  <si>
+    <t>ITM_PARALLEL</t>
+  </si>
+  <si>
+    <t>ITM_SLASH</t>
+  </si>
+  <si>
+    <t>ITM_N</t>
+  </si>
+  <si>
+    <t>ITM_NU</t>
+  </si>
+  <si>
+    <t>ITM_O</t>
+  </si>
+  <si>
+    <t>ITM_OMEGA</t>
+  </si>
+  <si>
+    <t>ITM_P</t>
+  </si>
+  <si>
+    <t>ITM_PI</t>
+  </si>
+  <si>
+    <t>ITM_Q</t>
+  </si>
+  <si>
+    <t>ITM_CROSS</t>
+  </si>
+  <si>
+    <t>ITM_R</t>
+  </si>
+  <si>
+    <t>ITM_PROD_SIGN</t>
+  </si>
+  <si>
+    <t>ITM_RHO</t>
+  </si>
+  <si>
+    <t>ITM_S</t>
+  </si>
+  <si>
+    <t>ITM_SIGMA</t>
+  </si>
+  <si>
+    <t>ITM_T</t>
+  </si>
+  <si>
+    <t>ITM_TAU</t>
+  </si>
+  <si>
+    <t>ITM_U</t>
+  </si>
+  <si>
+    <t>ITM_THETA</t>
+  </si>
+  <si>
+    <t>ITM_BST</t>
+  </si>
+  <si>
+    <t>ITM_MINUS</t>
+  </si>
+  <si>
+    <t>ITM_V</t>
+  </si>
+  <si>
+    <t>ITM_W</t>
+  </si>
+  <si>
+    <t>ITM_PSI</t>
+  </si>
+  <si>
+    <t>ITM_X</t>
+  </si>
+  <si>
+    <t>ITM_XI</t>
+  </si>
+  <si>
+    <t>ITM_CONSTpi</t>
+  </si>
+  <si>
+    <t>ITM_Y</t>
+  </si>
+  <si>
+    <t>ITM_UPSILON</t>
+  </si>
+  <si>
+    <t>ITM_SST</t>
+  </si>
+  <si>
+    <t>ITM_PLUS</t>
+  </si>
+  <si>
+    <t>ITM_Z</t>
+  </si>
+  <si>
+    <t>ITM_ZETA</t>
+  </si>
+  <si>
+    <t>ITM_QUESTION_MARK</t>
+  </si>
+  <si>
+    <t>ITM_PRINTER</t>
+  </si>
+  <si>
+    <t>ITM_COMMA</t>
+  </si>
+  <si>
+    <t>ITM_SPACE</t>
   </si>
   <si>
     <t>-MNU_ASN</t>
@@ -730,7 +743,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -877,6 +890,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1201,14 +1222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -1222,9 +1243,9 @@
     <col min="10" max="10" width="108.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1251,9 +1272,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1262,321 +1283,321 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1585,30 +1606,30 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -1617,324 +1638,324 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>172</v>
-      </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1952,443 +1973,443 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" t="s">
         <v>113</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="H28" t="s">
+      <c r="D35" t="s">
         <v>115</v>
       </c>
-      <c r="I28" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D36" t="s">
         <v>117</v>
       </c>
-      <c r="G29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
         <v>120</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D41" t="s">
         <v>121</v>
       </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
         <v>125</v>
       </c>
-      <c r="G31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" t="s">
         <v>126</v>
       </c>
-      <c r="I31" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="I42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
         <v>127</v>
-      </c>
-      <c r="D32" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" t="s">
-        <v>232</v>
-      </c>
-      <c r="F38" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" t="s">
-        <v>220</v>
-      </c>
-      <c r="I38" t="s">
-        <v>232</v>
-      </c>
-      <c r="J38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" t="s">
-        <v>142</v>
-      </c>
-      <c r="J40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" t="s">
-        <v>146</v>
-      </c>
-      <c r="J41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" t="s">
-        <v>227</v>
-      </c>
-      <c r="I42" t="s">
-        <v>148</v>
-      </c>
-      <c r="J42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" t="s">
-        <v>228</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -2400,39 +2421,39 @@
         <v>10</v>
       </c>
       <c r="J43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" t="s">
-        <v>230</v>
-      </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2447,14 +2468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I38" sqref="B2:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -2467,1407 +2488,1407 @@
     <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="str">
-        <f>Sheet1!B1</f>
+        <f>import!B1</f>
         <v>primary</v>
       </c>
       <c r="C1" t="str">
-        <f>Sheet1!C1</f>
+        <f>import!C1</f>
         <v>fShifted</v>
       </c>
       <c r="D1" t="str">
-        <f>Sheet1!D1</f>
+        <f>import!D1</f>
         <v>gShifted</v>
       </c>
       <c r="E1" t="str">
-        <f>Sheet1!E1</f>
+        <f>import!E1</f>
         <v>keyLblAim</v>
       </c>
       <c r="F1" t="str">
-        <f>Sheet1!F1</f>
+        <f>import!F1</f>
         <v>primaryAim</v>
       </c>
       <c r="G1" t="str">
-        <f>Sheet1!G1</f>
+        <f>import!G1</f>
         <v>fShiftedAim</v>
       </c>
       <c r="H1" t="str">
-        <f>Sheet1!H1</f>
+        <f>import!H1</f>
         <v>gShiftedAim</v>
       </c>
       <c r="I1" t="str">
-        <f>Sheet1!I1</f>
+        <f>import!I1</f>
         <v>primaryTam</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B2&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;B$1&amp;"="&amp;import!B2&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[0].primary=ITM_1ONX; </v>
       </c>
       <c r="C2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C2&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;C$1&amp;"="&amp;import!C2&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[0].fShifted=ITM_TGLFRT; </v>
       </c>
       <c r="D2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D2&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;D$1&amp;"="&amp;import!D2&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[0].gShifted=-MNU_ALPHAFN; </v>
       </c>
       <c r="E2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E2&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;E$1&amp;"="&amp;import!E2&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[0].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F2&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[0].primaryAim=CHR_A; </v>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;F$1&amp;"="&amp;import!F2&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[0].primaryAim=ITM_A; </v>
       </c>
       <c r="G2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G2&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;G$1&amp;"="&amp;import!G2&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[0].fShiftedAim=-MNU_ALPHAINTL; </v>
       </c>
       <c r="H2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H2&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[0].gShiftedAim=CHR_ALPHA; </v>
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;H$1&amp;"="&amp;import!H2&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[0].gShiftedAim=ITM_ALPHA; </v>
       </c>
       <c r="I2" t="str">
-        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I2&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[0].primaryTam=ITM_ST_A; </v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <f>"kbd_usr["&amp;$A2&amp;"]."&amp;I$1&amp;"="&amp;import!I2&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[0].primaryTam=ITM_REG_A; </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].primary=ITM_YX; </v>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;B$1&amp;"="&amp;import!B3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].primary=-MNU_EXP; </v>
       </c>
       <c r="C3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C3&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;C$1&amp;"="&amp;import!C3&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[1].fShifted=ITM_toINT; </v>
       </c>
       <c r="D3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].gShifted=-MNU_EXP; </v>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;D$1&amp;"="&amp;import!D3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].gShifted=-MNU_BITS; </v>
       </c>
       <c r="E3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].keyLblAim=CHR_NUMBER_SIGN; </v>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;E$1&amp;"="&amp;import!E3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].keyLblAim=ITM_NUMBER_SIGN; </v>
       </c>
       <c r="F3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].primaryAim=CHR_B; </v>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;F$1&amp;"="&amp;import!F3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].primaryAim=ITM_B; </v>
       </c>
       <c r="G3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].fShiftedAim=CHR_NUMBER_SIGN; </v>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;G$1&amp;"="&amp;import!G3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].fShiftedAim=ITM_NUMBER_SIGN; </v>
       </c>
       <c r="H3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].gShiftedAim=CHR_BETA; </v>
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;H$1&amp;"="&amp;import!H3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].gShiftedAim=ITM_BETA; </v>
       </c>
       <c r="I3" t="str">
-        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I3&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[1].primaryTam=ITM_ST_B; </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <f>"kbd_usr["&amp;$A3&amp;"]."&amp;I$1&amp;"="&amp;import!I3&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[1].primaryTam=ITM_REG_B; </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B4&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;B$1&amp;"="&amp;import!B4&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[2].primary=-MNU_TRI; </v>
       </c>
       <c r="C4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C4&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;C$1&amp;"="&amp;import!C4&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[2].fShifted=ITM_DMS; </v>
       </c>
       <c r="D4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].gShifted=ITM_pi; </v>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;D$1&amp;"="&amp;import!D4&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[2].gShifted=-MNU_ANGLECONV; </v>
       </c>
       <c r="E4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E4&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;E$1&amp;"="&amp;import!E4&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[2].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].primaryAim=CHR_C; </v>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;F$1&amp;"="&amp;import!F4&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[2].primaryAim=ITM_C; </v>
       </c>
       <c r="G4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G4&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;G$1&amp;"="&amp;import!G4&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[2].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].gShiftedAim=CHR_GAMMA; </v>
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;H$1&amp;"="&amp;import!H4&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[2].gShiftedAim=ITM_GAMMA; </v>
       </c>
       <c r="I4" t="str">
-        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I4&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[2].primaryTam=ITM_ST_C; </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <f>"kbd_usr["&amp;$A4&amp;"]."&amp;I$1&amp;"="&amp;import!I4&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[2].primaryTam=ITM_REG_C; </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B5&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;B$1&amp;"="&amp;import!B5&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[3].primary=ITM_LN; </v>
       </c>
       <c r="C5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].fShifted=KEY_dotD; </v>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;C$1&amp;"="&amp;import!C5&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[3].fShifted=ITM_dotD; </v>
       </c>
       <c r="D5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D5&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;D$1&amp;"="&amp;import!D5&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[3].gShifted=ITM_LOG10; </v>
       </c>
       <c r="E5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E5&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;E$1&amp;"="&amp;import!E5&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[3].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].primaryAim=CHR_D; </v>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;F$1&amp;"="&amp;import!F5&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[3].primaryAim=ITM_D; </v>
       </c>
       <c r="G5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G5&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;G$1&amp;"="&amp;import!G5&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[3].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].gShiftedAim=CHR_DELTA; </v>
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;H$1&amp;"="&amp;import!H5&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[3].gShiftedAim=ITM_DELTA; </v>
       </c>
       <c r="I5" t="str">
-        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I5&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[3].primaryTam=ITM_ST_D; </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <f>"kbd_usr["&amp;$A5&amp;"]."&amp;I$1&amp;"="&amp;import!I5&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[3].primaryTam=ITM_REG_D; </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B6&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].primary=ITM_EX; </v>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;B$1&amp;"="&amp;import!B6&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[4].primary=ITM_EXP; </v>
       </c>
       <c r="C6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C6&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;C$1&amp;"="&amp;import!C6&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[4].fShifted=ITM_toHMS; </v>
       </c>
       <c r="D6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D6&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;D$1&amp;"="&amp;import!D6&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[4].gShifted=ITM_10x; </v>
       </c>
       <c r="E6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E6&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;E$1&amp;"="&amp;import!E6&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[4].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F6&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].primaryAim=CHR_E; </v>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;F$1&amp;"="&amp;import!F6&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[4].primaryAim=ITM_E; </v>
       </c>
       <c r="G6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G6&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;G$1&amp;"="&amp;import!G6&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[4].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H6&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[4].gShiftedAim=CHR_EPSILON; </v>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;H$1&amp;"="&amp;import!H6&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[4].gShiftedAim=ITM_EPSILON; </v>
       </c>
       <c r="I6" t="str">
-        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I6&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A6&amp;"]."&amp;I$1&amp;"="&amp;import!I6&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[4].primaryTam=ITM_NULL; </v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].primary=ITM_SQUARE; </v>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;B$1&amp;"="&amp;import!B7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].primary=ITM_SQUAREROOTX; </v>
       </c>
       <c r="C7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C7&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;C$1&amp;"="&amp;import!C7&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[5].fShifted=ITM_AIM; </v>
       </c>
       <c r="D7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].gShifted=ITM_SQUAREROOTX; </v>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;D$1&amp;"="&amp;import!D7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].gShifted=-MNU_CPX; </v>
       </c>
       <c r="E7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].keyLblAim=CHR_CHECK_MARK; </v>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;E$1&amp;"="&amp;import!E7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].keyLblAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="F7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].primaryAim=CHR_F; </v>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;F$1&amp;"="&amp;import!F7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].primaryAim=ITM_F; </v>
       </c>
       <c r="G7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].fShiftedAim=CHR_CHECK_MARK; </v>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;G$1&amp;"="&amp;import!G7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].fShiftedAim=ITM_ROOT_SIGN; </v>
       </c>
       <c r="H7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].gShiftedAim=CHR_PHI; </v>
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;H$1&amp;"="&amp;import!H7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].gShiftedAim=ITM_PHI; </v>
       </c>
       <c r="I7" t="str">
-        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I7&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[5].primaryTam=CHR_alpha; </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <f>"kbd_usr["&amp;$A7&amp;"]."&amp;I$1&amp;"="&amp;import!I7&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[5].primaryTam=ITM_alpha; </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B9&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;B$1&amp;"="&amp;import!B9&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[6].primary=ITM_STO; </v>
       </c>
       <c r="C8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C9&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;C$1&amp;"="&amp;import!C9&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[6].fShifted=ITM_ASSIGN; </v>
       </c>
       <c r="D8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D9&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;D$1&amp;"="&amp;import!D9&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[6].gShifted=ITM_SAVE; </v>
       </c>
       <c r="E8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E9&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;E$1&amp;"="&amp;import!E9&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[6].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F9&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[6].primaryAim=CHR_G; </v>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;F$1&amp;"="&amp;import!F9&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[6].primaryAim=ITM_G; </v>
       </c>
       <c r="G8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G9&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;G$1&amp;"="&amp;import!G9&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[6].fShiftedAim=ITM_ASSIGN; </v>
       </c>
       <c r="H8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H9&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[6].gShiftedAim=CHR_GAMMA; </v>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;H$1&amp;"="&amp;import!H9&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[6].gShiftedAim=ITM_GAMMA; </v>
       </c>
       <c r="I8" t="str">
-        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I9&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A8&amp;"]."&amp;I$1&amp;"="&amp;import!I9&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[6].primaryTam=ITM_NULL; </v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B10&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;B$1&amp;"="&amp;import!B10&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[7].primary=ITM_RCL; </v>
       </c>
       <c r="C9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C10&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;C$1&amp;"="&amp;import!C10&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[7].fShifted=ITM_RBR; </v>
       </c>
       <c r="D9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D10&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;D$1&amp;"="&amp;import!D10&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[7].gShifted=ITM_VIEW; </v>
       </c>
       <c r="E9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E10&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;E$1&amp;"="&amp;import!E10&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[7].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F10&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[7].primaryAim=CHR_H; </v>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;F$1&amp;"="&amp;import!F10&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[7].primaryAim=ITM_H; </v>
       </c>
       <c r="G9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G10&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;G$1&amp;"="&amp;import!G10&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[7].fShiftedAim=ITM_RBR; </v>
       </c>
       <c r="H9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H10&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[7].gShiftedAim=CHR_CHI; </v>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;H$1&amp;"="&amp;import!H10&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[7].gShiftedAim=ITM_CHI; </v>
       </c>
       <c r="I9" t="str">
-        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I10&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A9&amp;"]."&amp;I$1&amp;"="&amp;import!I10&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[7].primaryTam=ITM_HEX; </v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B11&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;B$1&amp;"="&amp;import!B11&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[8].primary=ITM_Rdown; </v>
       </c>
       <c r="C10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C11&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;C$1&amp;"="&amp;import!C11&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[8].fShifted=ITM_Rup; </v>
       </c>
       <c r="D10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].gShifted=-MNU_CPX; </v>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;D$1&amp;"="&amp;import!D11&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[8].gShifted=-MNU_STK; </v>
       </c>
       <c r="E10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E11&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;E$1&amp;"="&amp;import!E11&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[8].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].primaryAim=CHR_I; </v>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;F$1&amp;"="&amp;import!F11&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[8].primaryAim=ITM_I; </v>
       </c>
       <c r="G10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].fShiftedAim=CHR_DOWN_ARROW; </v>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;G$1&amp;"="&amp;import!G11&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[8].fShiftedAim=ITM_DOWN_ARROW; </v>
       </c>
       <c r="H10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].gShiftedAim=CHR_IOTA; </v>
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;H$1&amp;"="&amp;import!H11&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[8].gShiftedAim=ITM_IOTA; </v>
       </c>
       <c r="I10" t="str">
-        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I11&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[8].primaryTam=ITM_REGI; </v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <f>"kbd_usr["&amp;$A10&amp;"]."&amp;I$1&amp;"="&amp;import!I11&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[8].primaryTam=ITM_REG_I; </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].primary=KEY_CC; </v>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;B$1&amp;"="&amp;import!B12&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[9].primary=ITM_CC; </v>
       </c>
       <c r="C11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C12&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;C$1&amp;"="&amp;import!C12&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[9].fShifted=ITM_MAGNITUDE; </v>
       </c>
       <c r="D11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D12&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;D$1&amp;"="&amp;import!D12&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[9].gShifted=ITM_ANGLE; </v>
       </c>
       <c r="E11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E12&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;E$1&amp;"="&amp;import!E12&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[9].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].primaryAim=CHR_J; </v>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;F$1&amp;"="&amp;import!F12&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[9].primaryAim=ITM_J; </v>
       </c>
       <c r="G11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].fShiftedAim=ITM_NULL; </v>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;G$1&amp;"="&amp;import!G12&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[9].fShiftedAim=ITM_VERTICAL_BAR; </v>
       </c>
       <c r="H11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].gShiftedAim=CHR_ETA; </v>
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;H$1&amp;"="&amp;import!H12&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[9].gShiftedAim=ITM_ETA; </v>
       </c>
       <c r="I11" t="str">
-        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I12&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[9].primaryTam=ITM_REGJ; </v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <f>"kbd_usr["&amp;$A11&amp;"]."&amp;I$1&amp;"="&amp;import!I12&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[9].primaryTam=ITM_REG_J; </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].primary=KEY_f; </v>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;B$1&amp;"="&amp;import!B13&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[10].primary=ITM_SHIFTf; </v>
       </c>
       <c r="C12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C13&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;C$1&amp;"="&amp;import!C13&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[10].fShifted=ITM_NULL; </v>
       </c>
       <c r="D12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D13&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;D$1&amp;"="&amp;import!D13&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[10].gShifted=ITM_NULL; </v>
       </c>
       <c r="E12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].keyLblAim=KEY_f; </v>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;E$1&amp;"="&amp;import!E13&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[10].keyLblAim=ITM_SHIFTf; </v>
       </c>
       <c r="F12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].primaryAim=KEY_f; </v>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;F$1&amp;"="&amp;import!F13&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[10].primaryAim=ITM_SHIFTf; </v>
       </c>
       <c r="G12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G13&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;G$1&amp;"="&amp;import!G13&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[10].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_SCRDMP; </v>
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;H$1&amp;"="&amp;import!H13&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[10].gShiftedAim=ITM_SNAP; </v>
       </c>
       <c r="I12" t="str">
-        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I13&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[10].primaryTam=KEY_f; </v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <f>"kbd_usr["&amp;$A12&amp;"]."&amp;I$1&amp;"="&amp;import!I13&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[10].primaryTam=ITM_SHIFTf; </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].primary=KEY_g; </v>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;B$1&amp;"="&amp;import!B14&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[11].primary=ITM_SHIFTg; </v>
       </c>
       <c r="C13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C14&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;C$1&amp;"="&amp;import!C14&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[11].fShifted=ITM_NULL; </v>
       </c>
       <c r="D13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D14&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;D$1&amp;"="&amp;import!D14&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[11].gShifted=ITM_NULL; </v>
       </c>
       <c r="E13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].keyLblAim=KEY_g; </v>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;E$1&amp;"="&amp;import!E14&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[11].keyLblAim=ITM_SHIFTg; </v>
       </c>
       <c r="F13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].primaryAim=KEY_g; </v>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;F$1&amp;"="&amp;import!F14&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[11].primaryAim=ITM_SHIFTg; </v>
       </c>
       <c r="G13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].fShiftedAim=KEY_USERMODE; </v>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;G$1&amp;"="&amp;import!G14&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[11].fShiftedAim=ITM_USERMODE; </v>
       </c>
       <c r="H13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H14&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;H$1&amp;"="&amp;import!H14&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[11].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I13" t="str">
-        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I14&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[11].primaryTam=KEY_g; </v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <f>"kbd_usr["&amp;$A13&amp;"]."&amp;I$1&amp;"="&amp;import!I14&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[11].primaryTam=ITM_SHIFTg; </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B16&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;B$1&amp;"="&amp;import!B16&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[12].primary=ITM_ENTER; </v>
       </c>
       <c r="C14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C16&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[12].fShifted=ITM_STATUS; </v>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;C$1&amp;"="&amp;import!C16&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[12].fShifted=ITM_FILL; </v>
       </c>
       <c r="D14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D16&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;D$1&amp;"="&amp;import!D16&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[12].gShifted=ITM_DROP; </v>
       </c>
       <c r="E14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E16&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;E$1&amp;"="&amp;import!E16&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[12].keyLblAim=ITM_ENTER; </v>
       </c>
       <c r="F14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F16&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;F$1&amp;"="&amp;import!F16&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[12].primaryAim=ITM_ENTER; </v>
       </c>
       <c r="G14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G16&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[12].fShiftedAim=ITM_STATUS; </v>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;G$1&amp;"="&amp;import!G16&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[12].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H16&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_DROP; </v>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;H$1&amp;"="&amp;import!H16&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[12].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I14" t="str">
-        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I16&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A14&amp;"]."&amp;I$1&amp;"="&amp;import!I16&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[12].primaryTam=ITM_ENTER; </v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B17&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;B$1&amp;"="&amp;import!B17&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[13].primary=ITM_XexY; </v>
       </c>
       <c r="C15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].fShifted=ITM_FILL; </v>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;C$1&amp;"="&amp;import!C17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].fShifted=ITM_Xex; </v>
       </c>
       <c r="D15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].gShifted=-MNU_STK; </v>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;D$1&amp;"="&amp;import!D17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].gShifted=-MNU_UNITCONV; </v>
       </c>
       <c r="E15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].keyLblAim=CHR_ex; </v>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;E$1&amp;"="&amp;import!E17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].keyLblAim=ITM_ex; </v>
       </c>
       <c r="F15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].primaryAim=CHR_K; </v>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;F$1&amp;"="&amp;import!F17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].primaryAim=ITM_K; </v>
       </c>
       <c r="G15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].fShiftedAim=CHR_ex; </v>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;G$1&amp;"="&amp;import!G17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].fShiftedAim=ITM_ex; </v>
       </c>
       <c r="H15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].gShiftedAim=CHR_KAPPA; </v>
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;H$1&amp;"="&amp;import!H17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].gShiftedAim=ITM_KAPPA; </v>
       </c>
       <c r="I15" t="str">
-        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I17&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[13].primaryTam=ITM_REGK; </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <f>"kbd_usr["&amp;$A15&amp;"]."&amp;I$1&amp;"="&amp;import!I17&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[13].primaryTam=ITM_REG_K; </v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B18&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;B$1&amp;"="&amp;import!B18&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[14].primary=ITM_CHS; </v>
       </c>
       <c r="C16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C18&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;C$1&amp;"="&amp;import!C18&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[14].fShifted=ITM_DELTAPC; </v>
       </c>
       <c r="D16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D18&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;D$1&amp;"="&amp;import!D18&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[14].gShifted=-MNU_FIN; </v>
       </c>
       <c r="E16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].keyLblAim=CHR_PLUS_MINUS; </v>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;E$1&amp;"="&amp;import!E18&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[14].keyLblAim=ITM_PLUS_MINUS; </v>
       </c>
       <c r="F16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].primaryAim=CHR_L; </v>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;F$1&amp;"="&amp;import!F18&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[14].primaryAim=ITM_L; </v>
       </c>
       <c r="G16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].fShiftedAim=CHR_PLUS_MINUS; </v>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;G$1&amp;"="&amp;import!G18&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[14].fShiftedAim=ITM_PLUS_MINUS; </v>
       </c>
       <c r="H16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].gShiftedAim=CHR_LAMBDA; </v>
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;H$1&amp;"="&amp;import!H18&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[14].gShiftedAim=ITM_LAMBDA; </v>
       </c>
       <c r="I16" t="str">
-        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I18&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[14].primaryTam=ITM_REGL; </v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <f>"kbd_usr["&amp;$A16&amp;"]."&amp;I$1&amp;"="&amp;import!I18&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[14].primaryTam=ITM_REG_L; </v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B19&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;B$1&amp;"="&amp;import!B19&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[15].primary=ITM_EXPONENT; </v>
       </c>
       <c r="C17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].fShifted=ITM_SHOW; </v>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;C$1&amp;"="&amp;import!C19&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[15].fShifted=ITM_DSP; </v>
       </c>
       <c r="D17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].gShifted=-MNU_DSP; </v>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;D$1&amp;"="&amp;import!D19&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[15].gShifted=-MNU_DISP; </v>
       </c>
       <c r="E17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E19&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;E$1&amp;"="&amp;import!E19&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[15].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].primaryAim=CHR_M; </v>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;F$1&amp;"="&amp;import!F19&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[15].primaryAim=ITM_M; </v>
       </c>
       <c r="G17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].fShiftedAim=CHR_UP_ARROW; </v>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;G$1&amp;"="&amp;import!G19&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[15].fShiftedAim=ITM_UP_ARROW; </v>
       </c>
       <c r="H17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H19&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[15].gShiftedAim=CHR_MU; </v>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;H$1&amp;"="&amp;import!H19&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[15].gShiftedAim=ITM_MU; </v>
       </c>
       <c r="I17" t="str">
-        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I19&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A17&amp;"]."&amp;I$1&amp;"="&amp;import!I19&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[15].primaryTam=ITM_NULL; </v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].primary=KEY_BACKSPACE; </v>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;B$1&amp;"="&amp;import!B20&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[16].primary=ITM_BACKSPACE; </v>
       </c>
       <c r="C18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].fShifted= KEY_UNDO; </v>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;C$1&amp;"="&amp;import!C20&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[16].fShifted=ITM_UNDO; </v>
       </c>
       <c r="D18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D20&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;D$1&amp;"="&amp;import!D20&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[16].gShifted=-MNU_CLR; </v>
       </c>
       <c r="E18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].keyLblAim=KEY_BACKSPACE; </v>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;E$1&amp;"="&amp;import!E20&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[16].keyLblAim=ITM_BACKSPACE; </v>
       </c>
       <c r="F18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].primaryAim=KEY_BACKSPACE; </v>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;F$1&amp;"="&amp;import!F20&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[16].primaryAim=ITM_BACKSPACE; </v>
       </c>
       <c r="G18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].fShiftedAim=KEY_UNDO; </v>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;G$1&amp;"="&amp;import!G20&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[16].fShiftedAim=ITM_UNDO; </v>
       </c>
       <c r="H18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H20&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;H$1&amp;"="&amp;import!H20&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[16].gShiftedAim=-MNU_CLR; </v>
       </c>
       <c r="I18" t="str">
-        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I20&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[16].primaryTam=KEY_BACKSPACE; </v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <f>"kbd_usr["&amp;$A18&amp;"]."&amp;I$1&amp;"="&amp;import!I20&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[16].primaryTam=ITM_BACKSPACE; </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B22&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;B$1&amp;"="&amp;import!B22&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[17].primary=ITM_DIV; </v>
       </c>
       <c r="C19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C22&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[17].fShifted=ITM_RMD; </v>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;C$1&amp;"="&amp;import!C22&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[17].fShifted=ITM_PARALLEL; </v>
       </c>
       <c r="D19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D22&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;D$1&amp;"="&amp;import!D22&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[17].gShifted=ITM_MOD; </v>
       </c>
       <c r="E19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E22&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[17].keyLblAim=CHR_SLASH; </v>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;E$1&amp;"="&amp;import!E22&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[17].keyLblAim=ITM_SLASH; </v>
       </c>
       <c r="F19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F22&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[17].primaryAim=CHR_N; </v>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;F$1&amp;"="&amp;import!F22&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[17].primaryAim=ITM_N; </v>
       </c>
       <c r="G19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G22&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[17].fShiftedAim=CHR_SLASH; </v>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;G$1&amp;"="&amp;import!G22&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[17].fShiftedAim=ITM_SLASH; </v>
       </c>
       <c r="H19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H22&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[17].gShiftedAim=CHR_NU; </v>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;H$1&amp;"="&amp;import!H22&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[17].gShiftedAim=ITM_NU; </v>
       </c>
       <c r="I19" t="str">
-        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I22&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A19&amp;"]."&amp;I$1&amp;"="&amp;import!I22&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[17].primaryTam=ITM_DIV; </v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].primary=CHR_7; </v>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;B$1&amp;"="&amp;import!B23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].primary=ITM_7; </v>
       </c>
       <c r="C20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].fShifted=-MNU_CONST; </v>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;C$1&amp;"="&amp;import!C23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].fShifted=ITM_NULL; </v>
       </c>
       <c r="D20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D23&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;D$1&amp;"="&amp;import!D23&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[18].gShifted=-MNU_ASN; </v>
       </c>
       <c r="E20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].keyLblAim=CHR_7; </v>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;E$1&amp;"="&amp;import!E23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].keyLblAim=ITM_7; </v>
       </c>
       <c r="F20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].primaryAim=CHR_O; </v>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;F$1&amp;"="&amp;import!F23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].primaryAim=ITM_O; </v>
       </c>
       <c r="G20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].fShiftedAim=CHR_7; </v>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;G$1&amp;"="&amp;import!G23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].fShiftedAim=ITM_7; </v>
       </c>
       <c r="H20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].gShiftedAim=CHR_OMEGA; </v>
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;H$1&amp;"="&amp;import!H23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].gShiftedAim=ITM_OMEGA; </v>
       </c>
       <c r="I20" t="str">
-        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I23&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[18].primaryTam=CHR_7; </v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <f>"kbd_usr["&amp;$A20&amp;"]."&amp;I$1&amp;"="&amp;import!I23&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[18].primaryTam=ITM_7; </v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].primary=CHR_8; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;B$1&amp;"="&amp;import!B24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].primary=ITM_8; </v>
       </c>
       <c r="C21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].fShifted=KEY_USERMODE; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;C$1&amp;"="&amp;import!C24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].fShifted=ITM_USERMODE; </v>
       </c>
       <c r="D21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].gShifted=ITM_SCRDMP; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;D$1&amp;"="&amp;import!D24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].gShifted=ITM_SNAP; </v>
       </c>
       <c r="E21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].keyLblAim=CHR_8; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;E$1&amp;"="&amp;import!E24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].keyLblAim=ITM_8; </v>
       </c>
       <c r="F21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].primaryAim=CHR_P; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;F$1&amp;"="&amp;import!F24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].primaryAim=ITM_P; </v>
       </c>
       <c r="G21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].fShiftedAim=CHR_8; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;G$1&amp;"="&amp;import!G24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].fShiftedAim=ITM_8; </v>
       </c>
       <c r="H21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].gShiftedAim=CHR_PI; </v>
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;H$1&amp;"="&amp;import!H24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].gShiftedAim=ITM_PI; </v>
       </c>
       <c r="I21" t="str">
-        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I24&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[19].primaryTam=CHR_8; </v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <f>"kbd_usr["&amp;$A21&amp;"]."&amp;I$1&amp;"="&amp;import!I24&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[19].primaryTam=ITM_8; </v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].primary=CHR_9; </v>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;B$1&amp;"="&amp;import!B25&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[20].primary=ITM_9; </v>
       </c>
       <c r="C22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C25&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;C$1&amp;"="&amp;import!C25&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[20].fShifted=-MNU_HOME; </v>
       </c>
       <c r="D22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D25&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;D$1&amp;"="&amp;import!D25&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[20].gShifted=ITM_RTN; </v>
       </c>
       <c r="E22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].keyLblAim=CHR_9; </v>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;E$1&amp;"="&amp;import!E25&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[20].keyLblAim=ITM_9; </v>
       </c>
       <c r="F22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].primaryAim=CHR_Q; </v>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;F$1&amp;"="&amp;import!F25&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[20].primaryAim=ITM_Q; </v>
       </c>
       <c r="G22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].fShiftedAim=CHR_9; </v>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;G$1&amp;"="&amp;import!G25&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[20].fShiftedAim=ITM_9; </v>
       </c>
       <c r="H22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_RTN; </v>
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;H$1&amp;"="&amp;import!H25&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[20].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I22" t="str">
-        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I25&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[20].primaryTam=CHR_9; </v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <f>"kbd_usr["&amp;$A22&amp;"]."&amp;I$1&amp;"="&amp;import!I25&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[20].primaryTam=ITM_9; </v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;B$1&amp;"="&amp;import!B26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].primary=ITM_XEQ; </v>
       </c>
       <c r="C23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;C$1&amp;"="&amp;import!C26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].fShifted=ITM_GTO; </v>
       </c>
       <c r="D23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;D$1&amp;"="&amp;import!D26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].gShifted=ITM_LBL; </v>
       </c>
       <c r="E23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;E$1&amp;"="&amp;import!E26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;F$1&amp;"="&amp;import!F26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].primaryAim=ITM_NULL; </v>
       </c>
       <c r="G23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;G$1&amp;"="&amp;import!G26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;H$1&amp;"="&amp;import!H26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I23" t="str">
-        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I26&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A23&amp;"]."&amp;I$1&amp;"="&amp;import!I26&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[21].primaryTam=ITM_NULL; </v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B28&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;B$1&amp;"="&amp;import!B28&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[22].primary=ITM_MULT; </v>
       </c>
       <c r="C24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C28&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;C$1&amp;"="&amp;import!C28&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[22].fShifted=ITM_XFACT; </v>
       </c>
       <c r="D24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D28&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;D$1&amp;"="&amp;import!D28&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[22].gShifted=-MNU_PROB; </v>
       </c>
       <c r="E24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E28&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[22].keyLblAim=CHR_CROSS; </v>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;E$1&amp;"="&amp;import!E28&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[22].keyLblAim=ITM_CROSS; </v>
       </c>
       <c r="F24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F28&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[22].primaryAim=CHR_R; </v>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;F$1&amp;"="&amp;import!F28&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[22].primaryAim=ITM_R; </v>
       </c>
       <c r="G24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G28&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[22].fShiftedAim=CHR_PROD_SIGN; </v>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;G$1&amp;"="&amp;import!G28&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[22].fShiftedAim=ITM_PROD_SIGN; </v>
       </c>
       <c r="H24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H28&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[22].gShiftedAim=CHR_RHO; </v>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;H$1&amp;"="&amp;import!H28&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[22].gShiftedAim=ITM_RHO; </v>
       </c>
       <c r="I24" t="str">
-        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I28&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A24&amp;"]."&amp;I$1&amp;"="&amp;import!I28&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[22].primaryTam=ITM_MULT; </v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].primary=CHR_4; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;B$1&amp;"="&amp;import!B29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].primary=ITM_4; </v>
       </c>
       <c r="C25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].fShifted=-MNU_STAT; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;C$1&amp;"="&amp;import!C29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].fShifted=-MNU_SUMS; </v>
       </c>
       <c r="D25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].gShifted=-MNU_SUMS; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;D$1&amp;"="&amp;import!D29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].gShifted=-MNU_STAT; </v>
       </c>
       <c r="E25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].keyLblAim=CHR_4; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;E$1&amp;"="&amp;import!E29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].keyLblAim=ITM_4; </v>
       </c>
       <c r="F25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].primaryAim=CHR_S; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;F$1&amp;"="&amp;import!F29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].primaryAim=ITM_S; </v>
       </c>
       <c r="G25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].fShiftedAim=CHR_4; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;G$1&amp;"="&amp;import!G29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].fShiftedAim=ITM_4; </v>
       </c>
       <c r="H25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].gShiftedAim=CHR_SIGMA; </v>
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;H$1&amp;"="&amp;import!H29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].gShiftedAim=ITM_SIGMA; </v>
       </c>
       <c r="I25" t="str">
-        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I29&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[23].primaryTam=CHR_4; </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <f>"kbd_usr["&amp;$A25&amp;"]."&amp;I$1&amp;"="&amp;import!I29&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[23].primaryTam=ITM_4; </v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].primary=CHR_5; </v>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;B$1&amp;"="&amp;import!B30&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[24].primary=ITM_5; </v>
       </c>
       <c r="C26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C30&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;C$1&amp;"="&amp;import!C30&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[24].fShifted=ITM_toREC; </v>
       </c>
       <c r="D26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D30&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;D$1&amp;"="&amp;import!D30&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[24].gShifted=ITM_toPOL; </v>
       </c>
       <c r="E26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].keyLblAim=CHR_5; </v>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;E$1&amp;"="&amp;import!E30&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[24].keyLblAim=ITM_5; </v>
       </c>
       <c r="F26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].primaryAim=CHR_T; </v>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;F$1&amp;"="&amp;import!F30&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[24].primaryAim=ITM_T; </v>
       </c>
       <c r="G26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].fShiftedAim=CHR_5; </v>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;G$1&amp;"="&amp;import!G30&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[24].fShiftedAim=ITM_5; </v>
       </c>
       <c r="H26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].gShiftedAim=CHR_TAU; </v>
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;H$1&amp;"="&amp;import!H30&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[24].gShiftedAim=ITM_TAU; </v>
       </c>
       <c r="I26" t="str">
-        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I30&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[24].primaryTam=CHR_5; </v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <f>"kbd_usr["&amp;$A26&amp;"]."&amp;I$1&amp;"="&amp;import!I30&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[24].primaryTam=ITM_5; </v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].primary=CHR_6; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;B$1&amp;"="&amp;import!B31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].primary=ITM_6; </v>
       </c>
       <c r="C27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].fShifted=-MNU_UNITCONV; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;C$1&amp;"="&amp;import!C31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].fShifted=ITM_TIMER; </v>
       </c>
       <c r="D27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].gShifted=-MNU_ANGLECONV; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;D$1&amp;"="&amp;import!D31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].gShifted=-MNU_CLK; </v>
       </c>
       <c r="E27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].keyLblAim=CHR_6; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;E$1&amp;"="&amp;import!E31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].keyLblAim=ITM_6; </v>
       </c>
       <c r="F27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].primaryAim=CHR_U; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;F$1&amp;"="&amp;import!F31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].primaryAim=ITM_U; </v>
       </c>
       <c r="G27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].fShiftedAim=CHR_6; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;G$1&amp;"="&amp;import!G31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].fShiftedAim=ITM_6; </v>
       </c>
       <c r="H27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].gShiftedAim=CHR_THETA; </v>
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;H$1&amp;"="&amp;import!H31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].gShiftedAim=ITM_THETA; </v>
       </c>
       <c r="I27" t="str">
-        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I31&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[25].primaryTam=CHR_6; </v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <f>"kbd_usr["&amp;$A27&amp;"]."&amp;I$1&amp;"="&amp;import!I31&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[25].primaryTam=ITM_6; </v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].primary=KEY_UP1; </v>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;B$1&amp;"="&amp;import!B32&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[26].primary=ITM_UP; </v>
       </c>
       <c r="C28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].fShifted=KEY_BST; </v>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;C$1&amp;"="&amp;import!C32&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[26].fShifted=ITM_BST; </v>
       </c>
       <c r="D28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D32&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;D$1&amp;"="&amp;import!D32&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[26].gShifted=-MNU_FLAGS; </v>
       </c>
       <c r="E28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].keyLblAim=KEY_UP1; </v>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;E$1&amp;"="&amp;import!E32&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[26].keyLblAim=ITM_UP; </v>
       </c>
       <c r="F28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].primaryAim=KEY_UP1; </v>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;F$1&amp;"="&amp;import!F32&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[26].primaryAim=ITM_UP; </v>
       </c>
       <c r="G28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].fShiftedAim=KEY_BST; </v>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;G$1&amp;"="&amp;import!G32&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[26].fShiftedAim=ITM_BST; </v>
       </c>
       <c r="H28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H32&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;H$1&amp;"="&amp;import!H32&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[26].gShiftedAim=-MNU_FLAGS; </v>
       </c>
       <c r="I28" t="str">
-        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I32&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[26].primaryTam=KEY_UP1; </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <f>"kbd_usr["&amp;$A28&amp;"]."&amp;I$1&amp;"="&amp;import!I32&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[26].primaryTam=ITM_UP; </v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B34&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;B$1&amp;"="&amp;import!B34&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[27].primary=ITM_SUB; </v>
       </c>
       <c r="C29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C34&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].fShifted=-MNU_BITS; </v>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;C$1&amp;"="&amp;import!C34&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[27].fShifted=-MNU_INTS; </v>
       </c>
       <c r="D29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D34&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].gShifted=-MNU_INTS; </v>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;D$1&amp;"="&amp;import!D34&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[27].gShifted=-MNU_PARTS; </v>
       </c>
       <c r="E29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E34&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].keyLblAim=CHR_MINUS; </v>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;E$1&amp;"="&amp;import!E34&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[27].keyLblAim=ITM_MINUS; </v>
       </c>
       <c r="F29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F34&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].primaryAim=CHR_V; </v>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;F$1&amp;"="&amp;import!F34&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[27].primaryAim=ITM_V; </v>
       </c>
       <c r="G29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G34&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[27].fShiftedAim=CHR_MINUS; </v>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;G$1&amp;"="&amp;import!G34&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[27].fShiftedAim=ITM_MINUS; </v>
       </c>
       <c r="H29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H34&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;H$1&amp;"="&amp;import!H34&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[27].gShiftedAim=-MNU_ALPHAMATH; </v>
       </c>
       <c r="I29" t="str">
-        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I34&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A29&amp;"]."&amp;I$1&amp;"="&amp;import!I34&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[27].primaryTam=ITM_SUB; </v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].primary=CHR_1; </v>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;B$1&amp;"="&amp;import!B35&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[28].primary=ITM_1; </v>
       </c>
       <c r="C30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C35&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;C$1&amp;"="&amp;import!C35&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[28].fShifted=-MNU_ADV; </v>
       </c>
       <c r="D30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D35&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;D$1&amp;"="&amp;import!D35&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[28].gShifted=-MNU_EQN; </v>
       </c>
       <c r="E30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].keyLblAim=CHR_1; </v>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;E$1&amp;"="&amp;import!E35&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[28].keyLblAim=ITM_1; </v>
       </c>
       <c r="F30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].primaryAim=CHR_W; </v>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;F$1&amp;"="&amp;import!F35&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[28].primaryAim=ITM_W; </v>
       </c>
       <c r="G30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].fShiftedAim=CHR_1; </v>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;G$1&amp;"="&amp;import!G35&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[28].fShiftedAim=ITM_1; </v>
       </c>
       <c r="H30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].gShiftedAim=CHR_PSI; </v>
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;H$1&amp;"="&amp;import!H35&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[28].gShiftedAim=ITM_PSI; </v>
       </c>
       <c r="I30" t="str">
-        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I35&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[28].primaryTam=CHR_1; </v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <f>"kbd_usr["&amp;$A30&amp;"]."&amp;I$1&amp;"="&amp;import!I35&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[28].primaryTam=ITM_1; </v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].primary=CHR_2; </v>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;B$1&amp;"="&amp;import!B36&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[29].primary=ITM_2; </v>
       </c>
       <c r="C31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C36&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;C$1&amp;"="&amp;import!C36&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[29].fShifted=-MNU_MATX; </v>
       </c>
       <c r="D31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D36&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;D$1&amp;"="&amp;import!D36&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[29].gShifted=-MNU_XFN; </v>
       </c>
       <c r="E31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].keyLblAim=CHR_2; </v>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;E$1&amp;"="&amp;import!E36&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[29].keyLblAim=ITM_2; </v>
       </c>
       <c r="F31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].primaryAim=CHR_X; </v>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;F$1&amp;"="&amp;import!F36&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[29].primaryAim=ITM_X; </v>
       </c>
       <c r="G31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].fShiftedAim=CHR_2; </v>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;G$1&amp;"="&amp;import!G36&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[29].fShiftedAim=ITM_2; </v>
       </c>
       <c r="H31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].gShiftedAim=CHR_XI; </v>
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;H$1&amp;"="&amp;import!H36&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[29].gShiftedAim=ITM_XI; </v>
       </c>
       <c r="I31" t="str">
-        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I36&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[29].primaryTam=CHR_2; </v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <f>"kbd_usr["&amp;$A31&amp;"]."&amp;I$1&amp;"="&amp;import!I36&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[29].primaryTam=ITM_2; </v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].primary=CHR_3; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;B$1&amp;"="&amp;import!B37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].primary=ITM_3; </v>
       </c>
       <c r="C32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].fShifted=ITM_TIMER; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;C$1&amp;"="&amp;import!C37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].fShifted=ITM_CONSTpi; </v>
       </c>
       <c r="D32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].gShifted=-MNU_CLK; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;D$1&amp;"="&amp;import!D37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].gShifted=-MNU_CONST; </v>
       </c>
       <c r="E32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].keyLblAim=CHR_3; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;E$1&amp;"="&amp;import!E37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].keyLblAim=ITM_3; </v>
       </c>
       <c r="F32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].primaryAim=CHR_Y; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;F$1&amp;"="&amp;import!F37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].primaryAim=ITM_Y; </v>
       </c>
       <c r="G32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].fShiftedAim=CHR_3; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;G$1&amp;"="&amp;import!G37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].fShiftedAim=ITM_3; </v>
       </c>
       <c r="H32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].gShiftedAim=CHR_UPSILON; </v>
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;H$1&amp;"="&amp;import!H37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].gShiftedAim=ITM_UPSILON; </v>
       </c>
       <c r="I32" t="str">
-        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I37&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[30].primaryTam=CHR_3; </v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <f>"kbd_usr["&amp;$A32&amp;"]."&amp;I$1&amp;"="&amp;import!I37&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[30].primaryTam=ITM_3; </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].primary=KEY_DOWN1; </v>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;B$1&amp;"="&amp;import!B38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].primary=ITM_DOWN; </v>
       </c>
       <c r="C33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].fShifted=KEY_SST; </v>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;C$1&amp;"="&amp;import!C38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].fShifted=ITM_SST; </v>
       </c>
       <c r="D33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D38&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;D$1&amp;"="&amp;import!D38&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[31].gShifted=-MNU_MODE; </v>
       </c>
       <c r="E33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].keyLblAim=KEY_DOWN1; </v>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;E$1&amp;"="&amp;import!E38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].keyLblAim=ITM_DOWN; </v>
       </c>
       <c r="F33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].primaryAim=KEY_DOWN1; </v>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;F$1&amp;"="&amp;import!F38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].primaryAim=ITM_DOWN; </v>
       </c>
       <c r="G33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].fShiftedAim=KEY_SST; </v>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;G$1&amp;"="&amp;import!G38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].fShiftedAim=ITM_SST; </v>
       </c>
       <c r="H33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].gShiftedAim=-MNU_MODE; </v>
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;H$1&amp;"="&amp;import!H38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I33" t="str">
-        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I38&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[31].primaryTam=KEY_DOWN1; </v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <f>"kbd_usr["&amp;$A33&amp;"]."&amp;I$1&amp;"="&amp;import!I38&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[31].primaryTam=ITM_DOWN; </v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B40&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;B$1&amp;"="&amp;import!B40&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[32].primary=ITM_ADD; </v>
       </c>
       <c r="C34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C40&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].fShifted=-MNU_IO; </v>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;C$1&amp;"="&amp;import!C40&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[32].fShifted=-MNU_LOOP; </v>
       </c>
       <c r="D34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D40&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShifted=-MNU_PRINT; </v>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;D$1&amp;"="&amp;import!D40&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[32].gShifted=-MNU_TEST; </v>
       </c>
       <c r="E34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E40&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].keyLblAim=CHR_PLUS; </v>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;E$1&amp;"="&amp;import!E40&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[32].keyLblAim=ITM_PLUS; </v>
       </c>
       <c r="F34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F40&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].primaryAim=CHR_Z; </v>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;F$1&amp;"="&amp;import!F40&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[32].primaryAim=ITM_Z; </v>
       </c>
       <c r="G34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G40&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].fShiftedAim=CHR_PLUS; </v>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;G$1&amp;"="&amp;import!G40&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[32].fShiftedAim=ITM_PLUS; </v>
       </c>
       <c r="H34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H40&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[32].gShiftedAim=CHR_ZETA; </v>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;H$1&amp;"="&amp;import!H40&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[32].gShiftedAim=ITM_ZETA; </v>
       </c>
       <c r="I34" t="str">
-        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I40&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A34&amp;"]."&amp;I$1&amp;"="&amp;import!I40&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[32].primaryTam=ITM_ADD; </v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].primary=CHR_0; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;B$1&amp;"="&amp;import!B41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].primary=ITM_0; </v>
       </c>
       <c r="C35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].fShifted=-MNU_LOOP; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;C$1&amp;"="&amp;import!C41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].fShifted=-MNU_IO; </v>
       </c>
       <c r="D35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].gShifted=-MNU_TEST; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;D$1&amp;"="&amp;import!D41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].gShifted=-MNU_PRINT; </v>
       </c>
       <c r="E35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].keyLblAim=CHR_0; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;E$1&amp;"="&amp;import!E41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].keyLblAim=ITM_0; </v>
       </c>
       <c r="F35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].primaryAim=ITM_NULL; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;F$1&amp;"="&amp;import!F41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].primaryAim=ITM_QUESTION_MARK; </v>
       </c>
       <c r="G35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].fShiftedAim=CHR_0; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;G$1&amp;"="&amp;import!G41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].fShiftedAim=ITM_0; </v>
       </c>
       <c r="H35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].gShiftedAim=CHR_PRINTER; </v>
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;H$1&amp;"="&amp;import!H41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].gShiftedAim=ITM_PRINTER; </v>
       </c>
       <c r="I35" t="str">
-        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I41&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[33].primaryTam=CHR_0; </v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <f>"kbd_usr["&amp;$A35&amp;"]."&amp;I$1&amp;"="&amp;import!I41&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[33].primaryTam=ITM_0; </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].primary=CHR_PERIOD; </v>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;B$1&amp;"="&amp;import!B42&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[34].primary=ITM_PERIOD; </v>
       </c>
       <c r="C36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].fShifted=-MNU_PARTS; </v>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;C$1&amp;"="&amp;import!C42&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[34].fShifted=ITM_SHOW; </v>
       </c>
       <c r="D36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D42&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;D$1&amp;"="&amp;import!D42&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[34].gShifted=-MNU_INFO; </v>
       </c>
       <c r="E36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].keyLblAim=CHR_PERIOD; </v>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;E$1&amp;"="&amp;import!E42&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[34].keyLblAim=ITM_PERIOD; </v>
       </c>
       <c r="F36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].primaryAim=CHR_COMMA; </v>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;F$1&amp;"="&amp;import!F42&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[34].primaryAim=ITM_COMMA; </v>
       </c>
       <c r="G36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].fShiftedAim=CHR_PERIOD; </v>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;G$1&amp;"="&amp;import!G42&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[34].fShiftedAim=ITM_PERIOD; </v>
       </c>
       <c r="H36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H42&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;H$1&amp;"="&amp;import!H42&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[34].gShiftedAim=-MNU_ALPHADOT; </v>
       </c>
       <c r="I36" t="str">
-        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I42&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[34].primaryTam=CHR_PERIOD; </v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <f>"kbd_usr["&amp;$A36&amp;"]."&amp;I$1&amp;"="&amp;import!I42&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[34].primaryTam=ITM_PERIOD; </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;B$1&amp;"="&amp;import!B43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].primary=ITM_RS; </v>
       </c>
       <c r="C37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;C$1&amp;"="&amp;import!C43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].fShifted=ITM_PR; </v>
       </c>
       <c r="D37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;D$1&amp;"="&amp;import!D43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].gShifted=-MNU_PFN; </v>
       </c>
       <c r="E37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;E$1&amp;"="&amp;import!E43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].keyLblAim=ITM_NULL; </v>
       </c>
       <c r="F37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F43&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[35].primaryAim=CHR_SPACE; </v>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;F$1&amp;"="&amp;import!F43&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[35].primaryAim=ITM_SPACE; </v>
       </c>
       <c r="G37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;G$1&amp;"="&amp;import!G43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].fShiftedAim=ITM_NULL; </v>
       </c>
       <c r="H37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;H$1&amp;"="&amp;import!H43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].gShiftedAim=ITM_NULL; </v>
       </c>
       <c r="I37" t="str">
-        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I43&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A37&amp;"]."&amp;I$1&amp;"="&amp;import!I43&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[35].primaryTam=ITM_NULL; </v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;B$1&amp;"="&amp;Sheet1!B44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].primary=KEY_EXIT1; </v>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;B$1&amp;"="&amp;import!B44&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[36].primary=ITM_EXIT; </v>
       </c>
       <c r="C38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;C$1&amp;"="&amp;Sheet1!C44&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;C$1&amp;"="&amp;import!C44&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[36].fShifted=-MNU_CATALOG; </v>
       </c>
       <c r="D38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;D$1&amp;"="&amp;Sheet1!D44&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;D$1&amp;"="&amp;import!D44&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[36].gShifted=ITM_OFF; </v>
       </c>
       <c r="E38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;E$1&amp;"="&amp;Sheet1!E44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].keyLblAim=KEY_EXIT1; </v>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;E$1&amp;"="&amp;import!E44&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[36].keyLblAim=ITM_EXIT; </v>
       </c>
       <c r="F38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;F$1&amp;"="&amp;Sheet1!F44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].primaryAim=KEY_EXIT1; </v>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;F$1&amp;"="&amp;import!F44&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[36].primaryAim=ITM_EXIT; </v>
       </c>
       <c r="G38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;G$1&amp;"="&amp;Sheet1!G44&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;G$1&amp;"="&amp;import!G44&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[36].fShiftedAim=-MNU_CATALOG; </v>
       </c>
       <c r="H38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;H$1&amp;"="&amp;Sheet1!H44&amp;"; "</f>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;H$1&amp;"="&amp;import!H44&amp;"; "</f>
         <v xml:space="preserve">kbd_usr[36].gShiftedAim=ITM_OFF; </v>
       </c>
       <c r="I38" t="str">
-        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;I$1&amp;"="&amp;Sheet1!I44&amp;"; "</f>
-        <v xml:space="preserve">kbd_usr[36].primaryTam=KEY_EXIT1; </v>
+        <f>"kbd_usr["&amp;$A38&amp;"]."&amp;I$1&amp;"="&amp;import!I44&amp;"; "</f>
+        <v xml:space="preserve">kbd_usr[36].primaryTam=ITM_EXIT; </v>
       </c>
     </row>
   </sheetData>
